--- a/estudos/pandas/projects/meta_funcionario/datasets/vendas_funcs.xlsx
+++ b/estudos/pandas/projects/meta_funcionario/datasets/vendas_funcs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,1315 +434,1015 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Nome</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>Vendas</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Pessoa 1</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>15862</v>
+      <c r="B2" t="n">
+        <v>9572</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Pessoa 2</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>19939</v>
+      <c r="B3" t="n">
+        <v>14770</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Pessoa 3</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>13720</v>
+      <c r="B4" t="n">
+        <v>10579</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Pessoa 4</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>16601</v>
+      <c r="B5" t="n">
+        <v>12115</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Pessoa 5</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>9869</v>
+      <c r="B6" t="n">
+        <v>11287</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Pessoa 6</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>9904</v>
+      <c r="B7" t="n">
+        <v>7540</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Pessoa 7</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>19882</v>
+      <c r="B8" t="n">
+        <v>15919</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Pessoa 8</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>15654</v>
+      <c r="B9" t="n">
+        <v>17200</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Pessoa 9</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>17206</v>
+      <c r="B10" t="n">
+        <v>10535</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Pessoa 10</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>5022</v>
+      <c r="B11" t="n">
+        <v>5001</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Pessoa 11</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>13432</v>
+      <c r="B12" t="n">
+        <v>14702</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Pessoa 12</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>18655</v>
+      <c r="B13" t="n">
+        <v>12837</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Pessoa 13</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>16900</v>
+      <c r="B14" t="n">
+        <v>6075</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Pessoa 14</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>19079</v>
+      <c r="B15" t="n">
+        <v>19604</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Pessoa 15</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>8882</v>
+      <c r="B16" t="n">
+        <v>14044</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Pessoa 16</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>12731</v>
+      <c r="B17" t="n">
+        <v>17803</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Pessoa 17</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>12460</v>
+      <c r="B18" t="n">
+        <v>8058</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Pessoa 18</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>15329</v>
+      <c r="B19" t="n">
+        <v>8893</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Pessoa 19</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>8258</v>
+      <c r="B20" t="n">
+        <v>14321</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Pessoa 20</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>6159</v>
+      <c r="B21" t="n">
+        <v>16521</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Pessoa 21</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>13710</v>
+      <c r="B22" t="n">
+        <v>6063</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Pessoa 22</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>16988</v>
+      <c r="B23" t="n">
+        <v>16003</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Pessoa 23</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>6344</v>
+      <c r="B24" t="n">
+        <v>15046</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Pessoa 24</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>12817</v>
+      <c r="B25" t="n">
+        <v>13803</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Pessoa 25</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>17934</v>
+      <c r="B26" t="n">
+        <v>7601</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Pessoa 26</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>16225</v>
+      <c r="B27" t="n">
+        <v>6313</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Pessoa 27</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>11521</v>
+      <c r="B28" t="n">
+        <v>10471</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Pessoa 28</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>7422</v>
+      <c r="B29" t="n">
+        <v>16452</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>Pessoa 29</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>7565</v>
+      <c r="B30" t="n">
+        <v>6802</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Pessoa 30</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>8614</v>
+      <c r="B31" t="n">
+        <v>10907</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Pessoa 31</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>5777</v>
+      <c r="B32" t="n">
+        <v>6288</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>Pessoa 32</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>12551</v>
+      <c r="B33" t="n">
+        <v>7386</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>Pessoa 33</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>18124</v>
+      <c r="B34" t="n">
+        <v>12510</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Pessoa 34</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>10837</v>
+      <c r="B35" t="n">
+        <v>6268</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Pessoa 35</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>9524</v>
+      <c r="B36" t="n">
+        <v>15102</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>Pessoa 36</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>19640</v>
+      <c r="B37" t="n">
+        <v>14391</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
+      <c r="A38" t="inlineStr">
         <is>
           <t>Pessoa 37</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>11960</v>
+      <c r="B38" t="n">
+        <v>9948</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
+      <c r="A39" t="inlineStr">
         <is>
           <t>Pessoa 38</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>9340</v>
+      <c r="B39" t="n">
+        <v>10028</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
+      <c r="A40" t="inlineStr">
         <is>
           <t>Pessoa 39</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>5087</v>
+      <c r="B40" t="n">
+        <v>10004</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>Pessoa 40</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>8598</v>
+      <c r="B41" t="n">
+        <v>6896</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
+      <c r="A42" t="inlineStr">
         <is>
           <t>Pessoa 41</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>13273</v>
+      <c r="B42" t="n">
+        <v>18033</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
+      <c r="A43" t="inlineStr">
         <is>
           <t>Pessoa 42</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>17666</v>
+      <c r="B43" t="n">
+        <v>8401</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
+      <c r="A44" t="inlineStr">
         <is>
           <t>Pessoa 43</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>12534</v>
+      <c r="B44" t="n">
+        <v>7154</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
+      <c r="A45" t="inlineStr">
         <is>
           <t>Pessoa 44</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>16195</v>
+      <c r="B45" t="n">
+        <v>10376</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Pessoa 45</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>7103</v>
+      <c r="B46" t="n">
+        <v>13618</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
+      <c r="A47" t="inlineStr">
         <is>
           <t>Pessoa 46</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>8566</v>
+      <c r="B47" t="n">
+        <v>16657</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
+      <c r="A48" t="inlineStr">
         <is>
           <t>Pessoa 47</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>8266</v>
+      <c r="B48" t="n">
+        <v>7282</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
+      <c r="A49" t="inlineStr">
         <is>
           <t>Pessoa 48</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>17595</v>
+      <c r="B49" t="n">
+        <v>5915</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
+      <c r="A50" t="inlineStr">
         <is>
           <t>Pessoa 49</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>7218</v>
+      <c r="B50" t="n">
+        <v>14700</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
+      <c r="A51" t="inlineStr">
         <is>
           <t>Pessoa 50</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>11574</v>
+      <c r="B51" t="n">
+        <v>15500</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
+      <c r="A52" t="inlineStr">
         <is>
           <t>Pessoa 51</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>15251</v>
+      <c r="B52" t="n">
+        <v>15695</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
+      <c r="A53" t="inlineStr">
         <is>
           <t>Pessoa 52</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>12789</v>
+      <c r="B53" t="n">
+        <v>11251</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
+      <c r="A54" t="inlineStr">
         <is>
           <t>Pessoa 53</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>7406</v>
+      <c r="B54" t="n">
+        <v>14512</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
+      <c r="A55" t="inlineStr">
         <is>
           <t>Pessoa 54</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>14116</v>
+      <c r="B55" t="n">
+        <v>10403</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
+      <c r="A56" t="inlineStr">
         <is>
           <t>Pessoa 55</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>11652</v>
+      <c r="B56" t="n">
+        <v>18419</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
+      <c r="A57" t="inlineStr">
         <is>
           <t>Pessoa 56</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>12270</v>
+      <c r="B57" t="n">
+        <v>17607</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
+      <c r="A58" t="inlineStr">
         <is>
           <t>Pessoa 57</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>6171</v>
+      <c r="B58" t="n">
+        <v>11546</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
+      <c r="A59" t="inlineStr">
         <is>
           <t>Pessoa 58</t>
         </is>
       </c>
-      <c r="C59" t="n">
-        <v>16890</v>
+      <c r="B59" t="n">
+        <v>7363</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
+      <c r="A60" t="inlineStr">
         <is>
           <t>Pessoa 59</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>6241</v>
+      <c r="B60" t="n">
+        <v>14362</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
+      <c r="A61" t="inlineStr">
         <is>
           <t>Pessoa 60</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>13055</v>
+      <c r="B61" t="n">
+        <v>13741</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
+      <c r="A62" t="inlineStr">
         <is>
           <t>Pessoa 61</t>
         </is>
       </c>
-      <c r="C62" t="n">
-        <v>18209</v>
+      <c r="B62" t="n">
+        <v>19837</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
+      <c r="A63" t="inlineStr">
         <is>
           <t>Pessoa 62</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>8286</v>
+      <c r="B63" t="n">
+        <v>13794</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
+      <c r="A64" t="inlineStr">
         <is>
           <t>Pessoa 63</t>
         </is>
       </c>
-      <c r="C64" t="n">
-        <v>13518</v>
+      <c r="B64" t="n">
+        <v>13124</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
+      <c r="A65" t="inlineStr">
         <is>
           <t>Pessoa 64</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>6021</v>
+      <c r="B65" t="n">
+        <v>9556</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
+      <c r="A66" t="inlineStr">
         <is>
           <t>Pessoa 65</t>
         </is>
       </c>
-      <c r="C66" t="n">
-        <v>9311</v>
+      <c r="B66" t="n">
+        <v>12084</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
+      <c r="A67" t="inlineStr">
         <is>
           <t>Pessoa 66</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v>19644</v>
+      <c r="B67" t="n">
+        <v>16145</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
+      <c r="A68" t="inlineStr">
         <is>
           <t>Pessoa 67</t>
         </is>
       </c>
-      <c r="C68" t="n">
-        <v>5542</v>
+      <c r="B68" t="n">
+        <v>18137</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
+      <c r="A69" t="inlineStr">
         <is>
           <t>Pessoa 68</t>
         </is>
       </c>
-      <c r="C69" t="n">
-        <v>7327</v>
+      <c r="B69" t="n">
+        <v>12579</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
+      <c r="A70" t="inlineStr">
         <is>
           <t>Pessoa 69</t>
         </is>
       </c>
-      <c r="C70" t="n">
-        <v>11033</v>
+      <c r="B70" t="n">
+        <v>12203</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
+      <c r="A71" t="inlineStr">
         <is>
           <t>Pessoa 70</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>8424</v>
+      <c r="B71" t="n">
+        <v>18585</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
+      <c r="A72" t="inlineStr">
         <is>
           <t>Pessoa 71</t>
         </is>
       </c>
-      <c r="C72" t="n">
-        <v>19331</v>
+      <c r="B72" t="n">
+        <v>13947</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
+      <c r="A73" t="inlineStr">
         <is>
           <t>Pessoa 72</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>5314</v>
+      <c r="B73" t="n">
+        <v>16581</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
+      <c r="A74" t="inlineStr">
         <is>
           <t>Pessoa 73</t>
         </is>
       </c>
-      <c r="C74" t="n">
-        <v>13742</v>
+      <c r="B74" t="n">
+        <v>14580</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
+      <c r="A75" t="inlineStr">
         <is>
           <t>Pessoa 74</t>
         </is>
       </c>
-      <c r="C75" t="n">
-        <v>12926</v>
+      <c r="B75" t="n">
+        <v>12513</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
+      <c r="A76" t="inlineStr">
         <is>
           <t>Pessoa 75</t>
         </is>
       </c>
-      <c r="C76" t="n">
-        <v>5374</v>
+      <c r="B76" t="n">
+        <v>13004</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
+      <c r="A77" t="inlineStr">
         <is>
           <t>Pessoa 76</t>
         </is>
       </c>
-      <c r="C77" t="n">
-        <v>7158</v>
+      <c r="B77" t="n">
+        <v>9874</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
+      <c r="A78" t="inlineStr">
         <is>
           <t>Pessoa 77</t>
         </is>
       </c>
-      <c r="C78" t="n">
-        <v>9131</v>
+      <c r="B78" t="n">
+        <v>8094</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
+      <c r="A79" t="inlineStr">
         <is>
           <t>Pessoa 78</t>
         </is>
       </c>
-      <c r="C79" t="n">
-        <v>6397</v>
+      <c r="B79" t="n">
+        <v>12594</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
+      <c r="A80" t="inlineStr">
         <is>
           <t>Pessoa 79</t>
         </is>
       </c>
-      <c r="C80" t="n">
-        <v>16829</v>
+      <c r="B80" t="n">
+        <v>10893</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
+      <c r="A81" t="inlineStr">
         <is>
           <t>Pessoa 80</t>
         </is>
       </c>
-      <c r="C81" t="n">
-        <v>18789</v>
+      <c r="B81" t="n">
+        <v>5584</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
+      <c r="A82" t="inlineStr">
         <is>
           <t>Pessoa 81</t>
         </is>
       </c>
-      <c r="C82" t="n">
-        <v>13867</v>
+      <c r="B82" t="n">
+        <v>6706</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
+      <c r="A83" t="inlineStr">
         <is>
           <t>Pessoa 82</t>
         </is>
       </c>
-      <c r="C83" t="n">
-        <v>9878</v>
+      <c r="B83" t="n">
+        <v>7908</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
+      <c r="A84" t="inlineStr">
         <is>
           <t>Pessoa 83</t>
         </is>
       </c>
-      <c r="C84" t="n">
-        <v>5001</v>
+      <c r="B84" t="n">
+        <v>10611</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
+      <c r="A85" t="inlineStr">
         <is>
           <t>Pessoa 84</t>
         </is>
       </c>
-      <c r="C85" t="n">
-        <v>18696</v>
+      <c r="B85" t="n">
+        <v>6880</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
+      <c r="A86" t="inlineStr">
         <is>
           <t>Pessoa 85</t>
         </is>
       </c>
-      <c r="C86" t="n">
-        <v>18984</v>
+      <c r="B86" t="n">
+        <v>17632</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
+      <c r="A87" t="inlineStr">
         <is>
           <t>Pessoa 86</t>
         </is>
       </c>
-      <c r="C87" t="n">
-        <v>8081</v>
+      <c r="B87" t="n">
+        <v>6063</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
+      <c r="A88" t="inlineStr">
         <is>
           <t>Pessoa 87</t>
         </is>
       </c>
-      <c r="C88" t="n">
-        <v>12777</v>
+      <c r="B88" t="n">
+        <v>10177</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
+      <c r="A89" t="inlineStr">
         <is>
           <t>Pessoa 88</t>
         </is>
       </c>
-      <c r="C89" t="n">
-        <v>9498</v>
+      <c r="B89" t="n">
+        <v>8806</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
+      <c r="A90" t="inlineStr">
         <is>
           <t>Pessoa 89</t>
         </is>
       </c>
-      <c r="C90" t="n">
-        <v>19036</v>
+      <c r="B90" t="n">
+        <v>17988</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
+      <c r="A91" t="inlineStr">
         <is>
           <t>Pessoa 90</t>
         </is>
       </c>
-      <c r="C91" t="n">
-        <v>14592</v>
+      <c r="B91" t="n">
+        <v>12953</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
+      <c r="A92" t="inlineStr">
         <is>
           <t>Pessoa 91</t>
         </is>
       </c>
-      <c r="C92" t="n">
-        <v>8755</v>
+      <c r="B92" t="n">
+        <v>9970</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
+      <c r="A93" t="inlineStr">
         <is>
           <t>Pessoa 92</t>
         </is>
       </c>
-      <c r="C93" t="n">
-        <v>11023</v>
+      <c r="B93" t="n">
+        <v>12701</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
+      <c r="A94" t="inlineStr">
         <is>
           <t>Pessoa 93</t>
         </is>
       </c>
-      <c r="C94" t="n">
-        <v>16387</v>
+      <c r="B94" t="n">
+        <v>10875</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
+      <c r="A95" t="inlineStr">
         <is>
           <t>Pessoa 94</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>10545</v>
+      <c r="B95" t="n">
+        <v>10254</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
+      <c r="A96" t="inlineStr">
         <is>
           <t>Pessoa 95</t>
         </is>
       </c>
-      <c r="C96" t="n">
-        <v>10208</v>
+      <c r="B96" t="n">
+        <v>11952</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
+      <c r="A97" t="inlineStr">
         <is>
           <t>Pessoa 96</t>
         </is>
       </c>
-      <c r="C97" t="n">
-        <v>17104</v>
+      <c r="B97" t="n">
+        <v>17144</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
+      <c r="A98" t="inlineStr">
         <is>
           <t>Pessoa 97</t>
         </is>
       </c>
-      <c r="C98" t="n">
-        <v>19005</v>
+      <c r="B98" t="n">
+        <v>15478</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
+      <c r="A99" t="inlineStr">
         <is>
           <t>Pessoa 98</t>
         </is>
       </c>
-      <c r="C99" t="n">
-        <v>19088</v>
+      <c r="B99" t="n">
+        <v>9996</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
+      <c r="A100" t="inlineStr">
         <is>
           <t>Pessoa 99</t>
         </is>
       </c>
-      <c r="C100" t="n">
-        <v>9775</v>
+      <c r="B100" t="n">
+        <v>14899</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
+      <c r="A101" t="inlineStr">
         <is>
           <t>Pessoa 100</t>
         </is>
       </c>
-      <c r="C101" t="n">
-        <v>10571</v>
+      <c r="B101" t="n">
+        <v>19334</v>
       </c>
     </row>
   </sheetData>
